--- a/Documentatie/Technisch/Test Document.xlsx
+++ b/Documentatie/Technisch/Test Document.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOCKHAM\Documents\GitHub\Ultihorloge\Documentatie\Technisch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735FFC74-5FBD-4D53-A71D-DD6A1ED063F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81624D5D-65B1-4549-B156-75781D1F52A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3495" yWindow="4065" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="126">
   <si>
     <t>Scenario</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Geen meting</t>
   </si>
   <si>
-    <t>Temperatuur boven 25°C?</t>
-  </si>
-  <si>
     <t>Sensor start in warme omgeving</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>Sensor correct afgeschermd, juiste code</t>
   </si>
   <si>
-    <t>USER STORY 2:</t>
-  </si>
-  <si>
     <t>JA (Automatische meting)</t>
   </si>
   <si>
@@ -177,9 +171,6 @@
     <t>4c</t>
   </si>
   <si>
-    <t>USER STORY 4:</t>
-  </si>
-  <si>
     <t>USER STORY 5:</t>
   </si>
   <si>
@@ -204,30 +195,15 @@
     <t>USER STORY 12:</t>
   </si>
   <si>
-    <t>Gemeten locatie (lat, lon)</t>
-  </si>
-  <si>
     <t>GPS getest binnen</t>
   </si>
   <si>
-    <t>(0.0, 0.0)</t>
-  </si>
-  <si>
-    <t>Geen signaal</t>
-  </si>
-  <si>
     <t>GPS werkt niet binnen</t>
   </si>
   <si>
     <t>3b</t>
   </si>
   <si>
-    <t>Locatie correct</t>
-  </si>
-  <si>
-    <t>(51.1809, 4.3597)</t>
-  </si>
-  <si>
     <t>Goede ontvangst</t>
   </si>
   <si>
@@ -261,9 +237,6 @@
     <t>GPS getest buiten positie verplaatst</t>
   </si>
   <si>
-    <t>(51.2678, 4.0096)</t>
-  </si>
-  <si>
     <t>GPS signaal stabiel</t>
   </si>
   <si>
@@ -271,6 +244,165 @@
   </si>
   <si>
     <t>GPS getest buiten met drukknop</t>
+  </si>
+  <si>
+    <t>Hartslag testen bij rusten</t>
+  </si>
+  <si>
+    <t>Er moet een waarde komen staan</t>
+  </si>
+  <si>
+    <t>geen uitlezing</t>
+  </si>
+  <si>
+    <t>1b</t>
+  </si>
+  <si>
+    <t>Hartslag testen bij rusten opnieuw</t>
+  </si>
+  <si>
+    <t>BPM moet stabiel zijn</t>
+  </si>
+  <si>
+    <t>Wel uitlezing, maar onstabiel</t>
+  </si>
+  <si>
+    <t>1c</t>
+  </si>
+  <si>
+    <t>Wel uitlezing en stabiel bij rust</t>
+  </si>
+  <si>
+    <t>VSCode nog steeds fout</t>
+  </si>
+  <si>
+    <t>Hartslag testen na 5 minuten beweging</t>
+  </si>
+  <si>
+    <t>BPM moet stijgen</t>
+  </si>
+  <si>
+    <t>BPM is gestegen</t>
+  </si>
+  <si>
+    <t>VSCode bij BPM in rust correct verbeterd</t>
+  </si>
+  <si>
+    <t>VSCode bij BPM in beweging correct</t>
+  </si>
+  <si>
+    <t>VScode te uitgebreid en fout</t>
+  </si>
+  <si>
+    <t>Hartslag testen na 5 minuten beweging met drukknop</t>
+  </si>
+  <si>
+    <t>BPM moet weer stijgen en werken met drukknop</t>
+  </si>
+  <si>
+    <t>BPM gestegen bij knopmeting</t>
+  </si>
+  <si>
+    <t>Knop en code juist geimplementeerd</t>
+  </si>
+  <si>
+    <t>hartslag testen met drukknop</t>
+  </si>
+  <si>
+    <t>Correcte waarde geven bij knopmmeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3b </t>
+  </si>
+  <si>
+    <t>hartslag testen met drukknop opnieuw</t>
+  </si>
+  <si>
+    <t>wel uitlezing</t>
+  </si>
+  <si>
+    <t>Knop en kabels vervangen</t>
+  </si>
+  <si>
+    <t>USER STORY 4: Integratietest</t>
+  </si>
+  <si>
+    <t>USER STORY 2: Unit test</t>
+  </si>
+  <si>
+    <t>Alle gegevens tonen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Display is aangesloten en toont alle resultaten</t>
+  </si>
+  <si>
+    <t>Geen display</t>
+  </si>
+  <si>
+    <t>Sensor verkeerd aangesloten</t>
+  </si>
+  <si>
+    <t>Foute sensor type gekozen en fout in de main code</t>
+  </si>
+  <si>
+    <t>Wel display maar niet duidelijk</t>
+  </si>
+  <si>
+    <t>In VSCode grote layout gekozen</t>
+  </si>
+  <si>
+    <t>Ja/Nee</t>
+  </si>
+  <si>
+    <t>1d</t>
+  </si>
+  <si>
+    <t>Duidelijke, leesbare layout</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Display is aangesloten en toont alle resultaten met een knop</t>
+  </si>
+  <si>
+    <t>Alle gegevens tonen d.m.v knop</t>
+  </si>
+  <si>
+    <t>Knop werkt niet</t>
+  </si>
+  <si>
+    <t>Knop werkt wel, maar niet stabiel</t>
+  </si>
+  <si>
+    <t>VSCode, knop debounce aanpassen</t>
+  </si>
+  <si>
+    <t>Code juist geimplementeerd</t>
+  </si>
+  <si>
+    <t>VSCode is juist geimplementeerd voor automatische meting</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>Display ververst niet correct</t>
+  </si>
+  <si>
+    <t>Oude waarde blijft staan</t>
+  </si>
+  <si>
+    <t>Knop werkt en code is juist en stabiel</t>
+  </si>
+  <si>
+    <t>Locatie correct  binnen krijgen</t>
+  </si>
+  <si>
+    <t>Geen signaal krijgen</t>
+  </si>
+  <si>
+    <t>Knop moet werken en de gps sensor moet coordinaten doorgeven</t>
+  </si>
+  <si>
+    <t>2d</t>
   </si>
 </sst>
 </file>
@@ -324,7 +456,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -360,6 +492,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -389,7 +527,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -402,25 +540,29 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="1" builtinId="21"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Uitvoer" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -703,32 +845,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B9:K93"/>
+  <dimension ref="B9:J107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="43.140625" customWidth="1"/>
+    <col min="3" max="3" width="62.28515625" customWidth="1"/>
     <col min="4" max="4" width="25.42578125" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" customWidth="1"/>
-    <col min="8" max="8" width="38.42578125" customWidth="1"/>
-    <col min="9" max="9" width="31" customWidth="1"/>
-    <col min="10" max="10" width="23.85546875" customWidth="1"/>
-    <col min="11" max="11" width="21" customWidth="1"/>
+    <col min="5" max="5" width="62.85546875" customWidth="1"/>
+    <col min="6" max="6" width="33.5703125" customWidth="1"/>
+    <col min="7" max="7" width="59" customWidth="1"/>
+    <col min="8" max="8" width="31" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B9" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="B9" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>0</v>
       </c>
@@ -736,255 +877,231 @@
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K11" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="F13" s="3">
         <v>55</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="D14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="F14" s="3">
+        <v>100</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="G14" s="3">
-        <v>100</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="J14" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="3">
+        <v>26.7</v>
+      </c>
+      <c r="F15" s="3">
+        <v>48</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+      <c r="J15" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="3">
-        <v>26.7</v>
-      </c>
-      <c r="G15" s="3">
-        <v>48</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15" s="9" t="s">
+      <c r="C16" s="3" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="3" t="s">
+    </row>
+    <row r="17" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>12</v>
+      <c r="E18" s="3">
+        <v>25.5</v>
       </c>
       <c r="F18" s="3">
-        <v>25.5</v>
-      </c>
-      <c r="G18" s="3">
         <v>51</v>
       </c>
+      <c r="G18" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="H18" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -993,306 +1110,671 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
     </row>
-    <row r="23" spans="2:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B23" s="11" t="s">
+    <row r="23" spans="2:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="B23" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="B24" s="11"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B24" s="12" t="s">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="B37" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="6"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="12" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="31" spans="2:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B31" s="11" t="s">
+      <c r="C42" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G42" s="12" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="7"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="5" t="s">
+      <c r="H42" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="B50" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="B51" s="11"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C52" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D52" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="6" t="s">
+      <c r="C55" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D38" s="6" t="s">
+      <c r="C59" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D60" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B46" s="11" t="s">
+      <c r="E60" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="B66" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="B67" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="B72" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="B73" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="B78" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B47" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="B52" s="11" t="s">
+    <row r="79" spans="2:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="B79" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="B84" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="B53" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="B58" s="11" t="s">
+    <row r="85" spans="2:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="B85" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="B86" s="9"/>
+    </row>
+    <row r="90" spans="2:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="B90" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="2:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="B59" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="B64" s="11" t="s">
+    <row r="91" spans="2:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="B91" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="B96" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="2:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="B65" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="B70" s="11" t="s">
+    <row r="97" spans="2:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="B97" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="B100" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="2:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="B71" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="B72" s="11"/>
-    </row>
-    <row r="76" spans="2:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="B76" s="11" t="s">
+    <row r="101" spans="2:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="B101" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="B105" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="2:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="B77" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="B82" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="B83" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="B86" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="B87" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="B91" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="B92" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="B93" s="11"/>
+    <row r="106" spans="2:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="B106" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="B107" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
